--- a/Files/Results/Correlation between model performance and changes in binding free energy.xlsx
+++ b/Files/Results/Correlation between model performance and changes in binding free energy.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\UFMG\Lab. de Bioinformática e Sistemas\Mestrado\MD-ML-Project\Files\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\UFMG\Lab. de Bioinformática e Sistemas\Mestrado\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F540F8-07AE-40D4-96E9-34601D7A7B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB87A33-1603-44B6-A5EA-D0FB5C100D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{95326DB6-965E-4D6D-8F2A-EE02F124A2F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="20221228" sheetId="1" r:id="rId1"/>
+    <sheet name="20230330" sheetId="3" r:id="rId2"/>
+    <sheet name="20230430" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,30 +38,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
-    <t>Correlation between model performance and changes in binding free energy</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Mutation</t>
-  </si>
-  <si>
-    <t>ΔΔG</t>
+    <t>Variante</t>
   </si>
   <si>
     <t>ΔΔG (norm)</t>
   </si>
   <si>
-    <t>Recall</t>
+    <t>Y489F</t>
   </si>
   <si>
-    <t>Neutra</t>
-  </si>
-  <si>
-    <t>Y489F</t>
+    <t>V367F</t>
   </si>
   <si>
     <t>G446V</t>
@@ -74,22 +61,7 @@
     <t>N439R</t>
   </si>
   <si>
-    <t>Y505F</t>
-  </si>
-  <si>
-    <t>Kappa</t>
-  </si>
-  <si>
-    <t>L452R, E484Q</t>
-  </si>
-  <si>
-    <t>Lambda</t>
-  </si>
-  <si>
-    <t>L452R, F490S</t>
-  </si>
-  <si>
-    <t>Teta</t>
+    <t>B.1.1.28.3</t>
   </si>
   <si>
     <t>E484K, N501Y</t>
@@ -101,23 +73,110 @@
     <t>K417T, E484K, N501Y</t>
   </si>
   <si>
-    <t>Mu</t>
+    <t>B.1.621</t>
   </si>
   <si>
     <t>R346K, E484K, N501Y</t>
   </si>
   <si>
+    <t>B.1.351</t>
+  </si>
+  <si>
+    <t>K417N, E484K, N501Y</t>
+  </si>
+  <si>
+    <t>E.V</t>
+  </si>
+  <si>
+    <t>N501I</t>
+  </si>
+  <si>
+    <t>N501T</t>
+  </si>
+  <si>
+    <t>ΔΔG</t>
+  </si>
+  <si>
+    <t>Correlação</t>
+  </si>
+  <si>
+    <t>F490S</t>
+  </si>
+  <si>
+    <t>Mutação</t>
+  </si>
+  <si>
+    <t>Neutra</t>
+  </si>
+  <si>
+    <t>Correlação entre a performance do modelo e as mudanças na energia livre de ligação</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Y505F</t>
+  </si>
+  <si>
+    <t>N439K</t>
+  </si>
+  <si>
+    <t>Teta</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>L452R, E484Q</t>
+  </si>
+  <si>
+    <t>Correlation between model performance and changes in binding free energy</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>L452R</t>
+  </si>
+  <si>
+    <t>K417Y</t>
+  </si>
+  <si>
+    <t>V445L</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,24 +190,36 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,18 +234,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -183,14 +248,108 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -225,6 +384,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB7D83C"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -237,6 +403,3192 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20221228'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-8A11-4749-9FE8-480CA75A80D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>Y489F</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>V367F</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>G446V</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>E484Q</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>N439R</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>F490S</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14124293785310743"/>
+                  <c:y val="-4.3233895373972799E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>B.1.1.28.3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>P.1</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3656806959222548E-2"/>
+                  <c:y val="-5.4042369217466531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>B.1.621</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="8.6479299871799531E-2"/>
+                      <c:h val="5.6139383355290708E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.420133538777606E-2"/>
+                  <c:y val="-4.3233895373973198E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>B.1.351</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1905495634309188E-2"/>
+                  <c:y val="-4.3233895373973198E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>N501I</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.3233895373973198E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:t>N501T</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-8A11-4749-9FE8-480CA75A80D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20221228'!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0404040404040387E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35353535353535354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19191919191919193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6262626262626263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83838383838383845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84848484848484862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95959595959595956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98989898989898994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20221228'!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A11-4749-9FE8-480CA75A80D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262715728"/>
+        <c:axId val="262716560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262715728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="900"/>
+                  <a:t>ΔΔ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="900"/>
+                  <a:t>G (norm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262716560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262716560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="900"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262715728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlação entre a performance do modelo e as mudanças na energia livre de ligação</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230330'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="B7D83C"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3959-4C14-A1C7-7F77E5E8FD30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Y489F</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>V367F</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>G446V</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>E484Q</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3325672807645455E-3"/>
+                  <c:y val="-4.314887785600954E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N439R</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7694902565035E-4"/>
+                  <c:y val="-1.3646984899955852E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N439K</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Y505F</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Teta</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>P.1</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Mu</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Beta</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9000740936091123E-2"/>
+                  <c:y val="-3.6115986369006564E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N501I</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>N501T</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3959-4C14-A1C7-7F77E5E8FD30}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.489292383228216E-2"/>
+                  <c:y val="0.49702493547408816"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>y = 0,1982e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>1,5068x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>R² = 0,7149</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230330'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.0404040404040387E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35353535353535354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19191919191919193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35353535353535354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83838383838383845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84848484848484862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95959595959595956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98989898989898994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230330'!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3959-4C14-A1C7-7F77E5E8FD30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034898703"/>
+        <c:axId val="809346831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1034898703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>ΔΔ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>G</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="-25000"/>
+                  <a:t>norm</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809346831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="809346831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034898703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -316,7 +3668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]20230430'!$E$2</c:f>
+              <c:f>'20230430'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -393,78 +3745,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]20230430'!$D$3:$D$12</c:f>
+              <c:f>'20230430'!$D$3:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.4375000000000004E-2</c:v>
+                  <c:v>0.25327868852459023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21124999999999997</c:v>
+                  <c:v>0.45655737704918037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11624999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.21885245901639347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21874999999999997</c:v>
+                  <c:v>0.50983606557377048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.84426229508196726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>0.90163934426229519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51875000000000004</c:v>
+                  <c:v>0.8401639344262295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.90983606557377061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59374999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]20230430'!$E$3:$E$12</c:f>
+              <c:f>'20230430'!$E$3:$E$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.41299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71</c:v>
+                  <c:v>0.71199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0.88</c:v>
+                <c:pt idx="7">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,7 +3824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4FA5-4AD3-A04E-F16CAC61137E}"/>
+              <c16:uniqueId val="{00000000-4003-4E01-9F08-FCF3E81822E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -567,7 +3919,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -684,7 +4036,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -810,6 +4162,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1326,33 +4758,1063 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD65A3E-6306-47BD-8442-321E5D675DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD516710-8827-2E0F-1C4D-4C3266322C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1369,132 +5831,140 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="20221228"/>
-      <sheetName val="20230330"/>
-      <sheetName val="20230430"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>Recall</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>2.4375000000000004E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>0.06</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.21124999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>0.39</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.11624999999999999</v>
-          </cell>
-          <cell r="E5">
-            <v>0.28000000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.21874999999999997</v>
-          </cell>
-          <cell r="E7">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.47499999999999998</v>
-          </cell>
-          <cell r="E8">
-            <v>0.71</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="E9">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0.51875000000000004</v>
-          </cell>
-          <cell r="E10">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>0.52500000000000002</v>
-          </cell>
-          <cell r="E11">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>0.59374999999999989</v>
-          </cell>
-          <cell r="E12">
-            <v>0.88</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BCCC7F-782D-7EA9-5238-6C750B51AE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5976139-1091-2E15-4DE8-4CEC10F7C298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A6055BC-6C3C-4905-9C88-2A768187C9FA}" name="Tabela158" displayName="Tabela158" ref="A2:E13" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A2:E13" xr:uid="{8A6055BC-6C3C-4905-9C88-2A768187C9FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1102B88E-0ADB-4828-A4E1-FBE523936246}" name="Tabela1" displayName="Tabela1" ref="A2:E15" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A2:E15" xr:uid="{1102B88E-0ADB-4828-A4E1-FBE523936246}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A9CAECBA-3770-4FF5-8158-EB2812F2EBDE}" name="Variant"/>
-    <tableColumn id="2" xr3:uid="{68E45CEE-38CF-46DD-B68A-4B0DD702F2F3}" name="Mutation"/>
-    <tableColumn id="3" xr3:uid="{36C36884-8C22-4280-BC50-19F497AEC0AF}" name="ΔΔG"/>
-    <tableColumn id="4" xr3:uid="{BDBD0DE4-2E08-49C4-B9CF-043A334F78E1}" name="ΔΔG (norm)" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{1FDC2F41-70B9-4751-B023-7BA0E001DB3E}" name="Variante"/>
+    <tableColumn id="2" xr3:uid="{6D3D8B75-ED59-4A7A-B4C0-56E454056953}" name="Mutação"/>
+    <tableColumn id="3" xr3:uid="{714C803A-F6F5-4F65-B909-AA9B046818F3}" name="ΔΔG"/>
+    <tableColumn id="4" xr3:uid="{BF0F8F30-E704-41DF-90C6-8F9C1F2B5098}" name="ΔΔG (norm)" dataDxfId="7">
+      <calculatedColumnFormula>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{F978E39C-E58E-4B24-9265-17A94FB8CAB7}" name="Recall" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{66687237-8F8C-41ED-A7B5-A6E3AA636437}" name="Tabela15" displayName="Tabela15" ref="A2:E16" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:E16" xr:uid="{1102B88E-0ADB-4828-A4E1-FBE523936246}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{894E225B-D5E5-41E8-ABB1-CD43F17641C8}" name="Variante"/>
+    <tableColumn id="2" xr3:uid="{7F422098-DF32-4D2B-8C7C-9ED61679C9FA}" name="Mutação"/>
+    <tableColumn id="3" xr3:uid="{07CD474B-D569-4CB7-BD8E-0FD95F8898FF}" name="ΔΔG"/>
+    <tableColumn id="4" xr3:uid="{DE35E9A2-8B38-4D5C-A7E5-4AA7F6ACB4C3}" name="ΔΔG (norm)" dataDxfId="4">
+      <calculatedColumnFormula>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{84957223-1AAF-4B18-ADB0-7EB1191DEBED}" name="Recall" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{11971971-4258-40BB-974D-249ED9CC54F7}" name="Tabela158" displayName="Tabela158" ref="A2:E13" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:E13" xr:uid="{11971971-4258-40BB-974D-249ED9CC54F7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F64A4335-B129-4BCD-B416-9BA72BB3232A}" name="Variant"/>
+    <tableColumn id="2" xr3:uid="{D69B5150-FAF7-4AD3-8DE5-EFF107099609}" name="Mutation"/>
+    <tableColumn id="3" xr3:uid="{7FEB3154-F75C-47CB-9E54-DD1F27E13CE1}" name="ΔΔG"/>
+    <tableColumn id="4" xr3:uid="{8F17857F-532D-4533-ADDF-7EAC21F68AD2}" name="ΔΔG (norm)" dataDxfId="1">
       <calculatedColumnFormula>(Tabela158[[#This Row],[ΔΔG]]+0.18)/0.99</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3FEF42A7-9C3E-4C29-8690-03E20F3B9505}" name="Recall" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{43D03F69-927D-4053-8C2D-9CAF9CD51CF2}" name="Recall" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1508,7 +5978,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1520,7 +5990,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1532,12 +6002,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1567,12 +6037,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1602,9 +6089,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1746,251 +6250,846 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC191A8-C2E0-44FD-9E49-4681AC783336}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>4.0404040404040387E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D4" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.35353535353535354</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.19191919191919193</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="D7" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D8" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.6262626262626263</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="10">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.83838383838383845</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.84848484848484862</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.95959595959595956</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D12" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="E12" s="5">
+        <v>0.83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-0.14099999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>2.4375000000000004E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.06</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.98989898989898994</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.158</v>
-      </c>
-      <c r="D4" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.21124999999999997</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.39</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D14" s="4">
+        <f>(Tabela1[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D5" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.11624999999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.28000000000000003</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <f xml:space="preserve"> CORREL(D3:D14,E3:E14)</f>
+        <v>0.80501506813910462</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-0.18</v>
-      </c>
-      <c r="D6" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.45</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
+      <c r="E16" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="D7" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.21874999999999997</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D8" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.42</v>
-      </c>
-      <c r="D9" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="D10" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.51875000000000004</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="D11" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="D12" s="3">
-        <f>(Tabela158[[#This Row],[ΔΔG]]+0.18)/1.6</f>
-        <v>0.59374999999999989</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6">
-        <f xml:space="preserve"> CORREL(D3:D12,E3:E12)</f>
-        <v>0.76390566819799199</v>
-      </c>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DB38F5-0ACA-4C95-939D-33F90D4E012A}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>4.0404040404040387E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D4" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.35353535353535354</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.19191919191919193</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.18</v>
+      </c>
+      <c r="D7" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="D9" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.35353535353535354</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.83838383838383845</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.84848484848484862</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D12" s="10">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.95959595959595956</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D13" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.98989898989898994</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D15" s="4">
+        <f>(Tabela15[[#This Row],[ΔΔG]]+0.18)/0.99</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <f xml:space="preserve"> CORREL(D3:D15,E3:E15)</f>
+        <v>0.82300349871871192</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="8"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0FE19B-5DB4-41C5-9A0F-BD02578AAABD}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.25327868852459023</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.107</v>
+      </c>
+      <c r="D4" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.45655737704918037</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-0.45</v>
+      </c>
+      <c r="D5" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-0.183</v>
+      </c>
+      <c r="D6" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.21885245901639347</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D7" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.50983606557377048</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D8" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.84426229508196726</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.90163934426229519</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D10" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.8401639344262295</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="D11" s="13">
+        <f>(Tabela158[[#This Row],[ΔΔG]]+0.45)/1.22</f>
+        <v>0.90983606557377061</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="15">
+        <f xml:space="preserve"> CORREL(D3:D12,E3:E12)</f>
+        <v>0.77588223009104196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>